--- a/SilentsTools/ModelViewer/SilentEngine/fileList.xlsx
+++ b/SilentsTools/ModelViewer/SilentEngine/fileList.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>testModelData\\P_standing.FBX</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,6 +119,38 @@
   </si>
   <si>
     <t>testModelData\\MMOVE.FBX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testModelData\\mutant@attack_01.FBX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testModelData\\mutant@attack_02.FBX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testModelData\\mutant@idel.FBX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testModelData\\mutant@gethit.FBX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testModelData\\mutant@walk.FBX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testModelData\\mutant@run.FBX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testModelData\\mutant@shout.FBX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testModelData\\mutant@dead.FBX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -786,15 +818,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A27534FB-9CB5-4D08-AEC2-1BA7F643785C}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38" customWidth="1"/>
+    <col min="1" max="1" width="45.75" customWidth="1"/>
     <col min="2" max="2" width="25.375" customWidth="1"/>
     <col min="3" max="3" width="21.75" customWidth="1"/>
   </cols>
@@ -977,6 +1009,60 @@
         <v>0</v>
       </c>
       <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="1">
+        <v>8</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
